--- a/t1_confection/A1_Outputs/A-O_AR_Projections.xlsx
+++ b/t1_confection/A1_Outputs/A-O_AR_Projections.xlsx
@@ -5736,7 +5736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL131"/>
+  <dimension ref="A1:AL139"/>
   <sheetViews>
     <sheetView topLeftCell="F20" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
@@ -13375,22 +13375,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PWROCGCRIXX00</t>
+          <t>PWRLDSCRIXX01</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Open Cycle Natural Gas (Power generator) Costa Rica, region XX (can not be invested)</t>
+          <t>Long duration storage (Power generator) Costa Rica, region XX (can be invested) (Investable technology)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>GASCRI</t>
+          <t>ELCCRIXX01</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Natural Gas, Costa Rica</t>
+          <t>Electricity, Costa Rica, region XX, power plant output</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -13407,94 +13407,94 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>2.99</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>2.99</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>2.99</v>
+        <v>1</v>
       </c>
       <c r="L60" t="n">
-        <v>2.99</v>
+        <v>1</v>
       </c>
       <c r="M60" t="n">
-        <v>2.99</v>
+        <v>1</v>
       </c>
       <c r="N60" t="n">
-        <v>2.99</v>
+        <v>1</v>
       </c>
       <c r="O60" t="n">
-        <v>2.99</v>
+        <v>1</v>
       </c>
       <c r="P60" t="n">
-        <v>2.99</v>
+        <v>1</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.99</v>
+        <v>1</v>
       </c>
       <c r="R60" t="n">
-        <v>2.99</v>
+        <v>1</v>
       </c>
       <c r="S60" t="n">
-        <v>2.99</v>
+        <v>1</v>
       </c>
       <c r="T60" t="n">
-        <v>2.99</v>
+        <v>1</v>
       </c>
       <c r="U60" t="n">
-        <v>2.99</v>
+        <v>1</v>
       </c>
       <c r="V60" t="n">
-        <v>2.99</v>
+        <v>1</v>
       </c>
       <c r="W60" t="n">
-        <v>2.99</v>
+        <v>1</v>
       </c>
       <c r="X60" t="n">
-        <v>2.99</v>
+        <v>1</v>
       </c>
       <c r="Y60" t="n">
-        <v>2.99</v>
+        <v>1</v>
       </c>
       <c r="Z60" t="n">
-        <v>2.99</v>
+        <v>1</v>
       </c>
       <c r="AA60" t="n">
-        <v>2.99</v>
+        <v>1</v>
       </c>
       <c r="AB60" t="n">
-        <v>2.99</v>
+        <v>1</v>
       </c>
       <c r="AC60" t="n">
-        <v>2.99</v>
+        <v>1</v>
       </c>
       <c r="AD60" t="n">
-        <v>2.99</v>
+        <v>1</v>
       </c>
       <c r="AE60" t="n">
-        <v>2.99</v>
+        <v>1</v>
       </c>
       <c r="AF60" t="n">
-        <v>2.99</v>
+        <v>1</v>
       </c>
       <c r="AG60" t="n">
-        <v>2.99</v>
+        <v>1</v>
       </c>
       <c r="AH60" t="n">
-        <v>2.99</v>
+        <v>1</v>
       </c>
       <c r="AI60" t="n">
-        <v>2.99</v>
+        <v>1</v>
       </c>
       <c r="AJ60" t="n">
-        <v>2.99</v>
+        <v>1</v>
       </c>
       <c r="AK60" t="n">
-        <v>2.99</v>
+        <v>1</v>
       </c>
       <c r="AL60" t="n">
-        <v>2.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -13503,27 +13503,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PWROCGCRIXX00</t>
+          <t>PWRLDSCRIXX01</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Open Cycle Natural Gas (Power generator) Costa Rica, region XX (can not be invested)</t>
+          <t>Long duration storage (Power generator) Costa Rica, region XX (can be invested) (Investable technology)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>GASINT</t>
+          <t>ELCCRIXX01</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Natural Gas, International Markets</t>
+          <t>Electricity, Costa Rica, region XX, power plant output</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Input</t>
+          <t>Output</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -13535,94 +13535,94 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>2.99</v>
+        <v>0.8</v>
       </c>
       <c r="J61" t="n">
-        <v>2.99</v>
+        <v>0.8</v>
       </c>
       <c r="K61" t="n">
-        <v>2.99</v>
+        <v>0.8</v>
       </c>
       <c r="L61" t="n">
-        <v>2.99</v>
+        <v>0.8</v>
       </c>
       <c r="M61" t="n">
-        <v>2.99</v>
+        <v>0.8</v>
       </c>
       <c r="N61" t="n">
-        <v>2.99</v>
+        <v>0.8</v>
       </c>
       <c r="O61" t="n">
-        <v>2.99</v>
+        <v>0.8</v>
       </c>
       <c r="P61" t="n">
-        <v>2.99</v>
+        <v>0.8</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.99</v>
+        <v>0.8</v>
       </c>
       <c r="R61" t="n">
-        <v>2.99</v>
+        <v>0.8</v>
       </c>
       <c r="S61" t="n">
-        <v>2.99</v>
+        <v>0.8</v>
       </c>
       <c r="T61" t="n">
-        <v>2.99</v>
+        <v>0.8</v>
       </c>
       <c r="U61" t="n">
-        <v>2.99</v>
+        <v>0.8</v>
       </c>
       <c r="V61" t="n">
-        <v>2.99</v>
+        <v>0.8</v>
       </c>
       <c r="W61" t="n">
-        <v>2.99</v>
+        <v>0.8</v>
       </c>
       <c r="X61" t="n">
-        <v>2.99</v>
+        <v>0.8</v>
       </c>
       <c r="Y61" t="n">
-        <v>2.99</v>
+        <v>0.8</v>
       </c>
       <c r="Z61" t="n">
-        <v>2.99</v>
+        <v>0.8</v>
       </c>
       <c r="AA61" t="n">
-        <v>2.99</v>
+        <v>0.8</v>
       </c>
       <c r="AB61" t="n">
-        <v>2.99</v>
+        <v>0.8</v>
       </c>
       <c r="AC61" t="n">
-        <v>2.99</v>
+        <v>0.8</v>
       </c>
       <c r="AD61" t="n">
-        <v>2.99</v>
+        <v>0.8</v>
       </c>
       <c r="AE61" t="n">
-        <v>2.99</v>
+        <v>0.8</v>
       </c>
       <c r="AF61" t="n">
-        <v>2.99</v>
+        <v>0.8</v>
       </c>
       <c r="AG61" t="n">
-        <v>2.99</v>
+        <v>0.8</v>
       </c>
       <c r="AH61" t="n">
-        <v>2.99</v>
+        <v>0.8</v>
       </c>
       <c r="AI61" t="n">
-        <v>2.99</v>
+        <v>0.8</v>
       </c>
       <c r="AJ61" t="n">
-        <v>2.99</v>
+        <v>0.8</v>
       </c>
       <c r="AK61" t="n">
-        <v>2.99</v>
+        <v>0.8</v>
       </c>
       <c r="AL61" t="n">
-        <v>2.99</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="62">
@@ -13631,27 +13631,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PWROCGCRIXX00</t>
+          <t>PWRLDSPANXX01</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Open Cycle Natural Gas (Power generator) Costa Rica, region XX (can not be invested)</t>
+          <t>Long duration storage (Power generator) Panama, region XX (can be invested) (Investable technology)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>ELCCRIXX01</t>
+          <t>ELCPANXX01</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Electricity, Costa Rica, region XX, power plant output</t>
+          <t>Electricity, Panama, region XX, power plant output</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Output</t>
+          <t>Input</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -13759,22 +13759,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PWROCGCRIXX00</t>
+          <t>PWRLDSPANXX01</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Open Cycle Natural Gas (Power generator) Costa Rica, region XX (can not be invested)</t>
+          <t>Long duration storage (Power generator) Panama, region XX (can be invested) (Investable technology)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>ELCCRIXX01</t>
+          <t>ELCPANXX01</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Electricity, Costa Rica, region XX, power plant output</t>
+          <t>Electricity, Panama, region XX, power plant output</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -13791,94 +13791,94 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K63" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M63" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N63" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O63" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="P63" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Q63" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="R63" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="S63" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="T63" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="U63" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="V63" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="W63" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X63" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Y63" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Z63" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA63" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB63" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC63" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AD63" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AE63" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AF63" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AG63" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AH63" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AI63" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AJ63" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AK63" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AL63" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="64">
@@ -13887,12 +13887,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>PWROCGCRIXX01</t>
+          <t>PWROCGCRIXX00</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Open Cycle Natural Gas (Power generator) Costa Rica, region XX (can be invested)</t>
+          <t>Open Cycle Natural Gas (Power generator) Costa Rica, region XX (can not be invested)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -13919,94 +13919,94 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="J64" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="K64" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="L64" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="M64" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="N64" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="O64" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="P64" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="R64" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="S64" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="T64" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="U64" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="V64" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="W64" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="X64" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="Y64" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="Z64" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AA64" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AB64" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AC64" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AD64" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AE64" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AF64" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AG64" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AH64" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AI64" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AJ64" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AK64" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AL64" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="65">
@@ -14015,12 +14015,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>PWROCGCRIXX01</t>
+          <t>PWROCGCRIXX00</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Open Cycle Natural Gas (Power generator) Costa Rica, region XX (can be invested)</t>
+          <t>Open Cycle Natural Gas (Power generator) Costa Rica, region XX (can not be invested)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -14047,94 +14047,94 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="J65" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="K65" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="L65" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="M65" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="N65" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="O65" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="P65" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="R65" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="S65" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="T65" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="U65" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="V65" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="W65" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="X65" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="Y65" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="Z65" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AA65" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AB65" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AC65" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AD65" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AE65" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AF65" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AG65" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AH65" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AI65" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AJ65" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AK65" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AL65" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="66">
@@ -14143,12 +14143,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PWROCGCRIXX01</t>
+          <t>PWROCGCRIXX00</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Open Cycle Natural Gas (Power generator) Costa Rica, region XX (can be invested)</t>
+          <t>Open Cycle Natural Gas (Power generator) Costa Rica, region XX (can not be invested)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -14271,12 +14271,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PWROCGCRIXX01</t>
+          <t>PWROCGCRIXX00</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Open Cycle Natural Gas (Power generator) Costa Rica, region XX (can be invested)</t>
+          <t>Open Cycle Natural Gas (Power generator) Costa Rica, region XX (can not be invested)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -14399,22 +14399,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PWROCGPANXX00</t>
+          <t>PWROCGCRIXX01</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Open Cycle Natural Gas (Power generator) Panama, region XX (can not be invested)</t>
+          <t>Open Cycle Natural Gas (Power generator) Costa Rica, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>GASPAN</t>
+          <t>GASCRI</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Natural Gas, Panama</t>
+          <t>Natural Gas, Costa Rica</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -14431,94 +14431,94 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="J68" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="K68" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="L68" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="M68" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="N68" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="O68" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="P68" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="R68" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="S68" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="T68" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="U68" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="V68" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="W68" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="X68" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="Y68" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="Z68" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="AA68" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="AB68" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="AC68" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="AD68" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="AE68" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="AF68" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="AG68" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="AH68" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="AI68" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="AJ68" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="AK68" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="AL68" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
     </row>
     <row r="69">
@@ -14527,12 +14527,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>PWROCGPANXX00</t>
+          <t>PWROCGCRIXX01</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Open Cycle Natural Gas (Power generator) Panama, region XX (can not be invested)</t>
+          <t>Open Cycle Natural Gas (Power generator) Costa Rica, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -14559,94 +14559,94 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="J69" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="K69" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="L69" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="M69" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="N69" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="O69" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="P69" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="R69" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="S69" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="T69" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="U69" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="V69" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="W69" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="X69" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="Y69" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="Z69" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="AA69" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="AB69" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="AC69" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="AD69" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="AE69" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="AF69" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="AG69" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="AH69" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="AI69" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="AJ69" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="AK69" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
       <c r="AL69" t="n">
-        <v>2.99</v>
+        <v>2.857</v>
       </c>
     </row>
     <row r="70">
@@ -14655,22 +14655,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>PWROCGPANXX00</t>
+          <t>PWROCGCRIXX01</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Open Cycle Natural Gas (Power generator) Panama, region XX (can not be invested)</t>
+          <t>Open Cycle Natural Gas (Power generator) Costa Rica, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>ELCPANXX01</t>
+          <t>ELCCRIXX01</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Electricity, Panama, region XX, power plant output</t>
+          <t>Electricity, Costa Rica, region XX, power plant output</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -14783,22 +14783,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>PWROCGPANXX00</t>
+          <t>PWROCGCRIXX01</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Open Cycle Natural Gas (Power generator) Panama, region XX (can not be invested)</t>
+          <t>Open Cycle Natural Gas (Power generator) Costa Rica, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>ELCPANXX01</t>
+          <t>ELCCRIXX01</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Electricity, Panama, region XX, power plant output</t>
+          <t>Electricity, Costa Rica, region XX, power plant output</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -14911,12 +14911,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PWROCGPANXX01</t>
+          <t>PWROCGPANXX00</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Open Cycle Natural Gas (Power generator) Panama, region XX (can be invested)</t>
+          <t>Open Cycle Natural Gas (Power generator) Panama, region XX (can not be invested)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -14943,94 +14943,94 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="J72" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="K72" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="L72" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="M72" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="N72" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="O72" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="P72" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="R72" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="S72" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="T72" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="U72" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="V72" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="W72" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="X72" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="Y72" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="Z72" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AA72" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AB72" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AC72" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AD72" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AE72" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AF72" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AG72" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AH72" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AI72" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AJ72" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AK72" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AL72" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="73">
@@ -15039,12 +15039,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>PWROCGPANXX01</t>
+          <t>PWROCGPANXX00</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Open Cycle Natural Gas (Power generator) Panama, region XX (can be invested)</t>
+          <t>Open Cycle Natural Gas (Power generator) Panama, region XX (can not be invested)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -15071,94 +15071,94 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="J73" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="K73" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="L73" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="M73" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="N73" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="O73" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="P73" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="R73" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="S73" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="T73" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="U73" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="V73" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="W73" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="X73" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="Y73" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="Z73" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AA73" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AB73" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AC73" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AD73" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AE73" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AF73" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AG73" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AH73" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AI73" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AJ73" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AK73" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
       <c r="AL73" t="n">
-        <v>2.857</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="74">
@@ -15167,12 +15167,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>PWROCGPANXX01</t>
+          <t>PWROCGPANXX00</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Open Cycle Natural Gas (Power generator) Panama, region XX (can be invested)</t>
+          <t>Open Cycle Natural Gas (Power generator) Panama, region XX (can not be invested)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -15295,12 +15295,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>PWROCGPANXX01</t>
+          <t>PWROCGPANXX00</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Open Cycle Natural Gas (Power generator) Panama, region XX (can be invested)</t>
+          <t>Open Cycle Natural Gas (Power generator) Panama, region XX (can not be invested)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -15423,22 +15423,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>PWROILCRIXX01</t>
+          <t>PWROCGPANXX01</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Oil (Power generator) Costa Rica, region XX (can be invested)</t>
+          <t>Open Cycle Natural Gas (Power generator) Panama, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>OILCRI</t>
+          <t>GASPAN</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Oil, Costa Rica</t>
+          <t>Natural Gas, Panama</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -15455,94 +15455,94 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="J76" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="K76" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="L76" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="M76" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="N76" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="O76" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="P76" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="R76" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="S76" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="T76" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="U76" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="V76" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="W76" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="X76" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="Y76" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="Z76" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="AA76" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="AB76" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="AC76" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="AD76" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="AE76" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="AF76" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="AG76" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="AH76" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="AI76" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="AJ76" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="AK76" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="AL76" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
     </row>
     <row r="77">
@@ -15551,22 +15551,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PWROILCRIXX01</t>
+          <t>PWROCGPANXX01</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Oil (Power generator) Costa Rica, region XX (can be invested)</t>
+          <t>Open Cycle Natural Gas (Power generator) Panama, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>OILINT</t>
+          <t>GASINT</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Oil, International Markets</t>
+          <t>Natural Gas, International Markets</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -15583,94 +15583,94 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="J77" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="K77" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="L77" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="M77" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="N77" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="O77" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="P77" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="R77" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="S77" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="T77" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="U77" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="V77" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="W77" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="X77" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="Y77" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="Z77" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="AA77" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="AB77" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="AC77" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="AD77" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="AE77" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="AF77" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="AG77" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="AH77" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="AI77" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="AJ77" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="AK77" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
       <c r="AL77" t="n">
-        <v>2.85</v>
+        <v>2.857</v>
       </c>
     </row>
     <row r="78">
@@ -15679,22 +15679,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PWROILCRIXX01</t>
+          <t>PWROCGPANXX01</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Oil (Power generator) Costa Rica, region XX (can be invested)</t>
+          <t>Open Cycle Natural Gas (Power generator) Panama, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>ELCCRIXX01</t>
+          <t>ELCPANXX01</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Electricity, Costa Rica, region XX, power plant output</t>
+          <t>Electricity, Panama, region XX, power plant output</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -15807,22 +15807,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PWROILCRIXX01</t>
+          <t>PWROCGPANXX01</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Oil (Power generator) Costa Rica, region XX (can be invested)</t>
+          <t>Open Cycle Natural Gas (Power generator) Panama, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>ELCCRIXX01</t>
+          <t>ELCPANXX01</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Electricity, Costa Rica, region XX, power plant output</t>
+          <t>Electricity, Panama, region XX, power plant output</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -15935,22 +15935,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PWROILPANXX01</t>
+          <t>PWROILCRIXX01</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Oil (Power generator) Panama, region XX (can be invested)</t>
+          <t>Oil (Power generator) Costa Rica, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>OILPAN</t>
+          <t>OILCRI</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Oil, Panama</t>
+          <t>Oil, Costa Rica</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -15967,94 +15967,94 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="J80" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="K80" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="L80" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="M80" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="N80" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="O80" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="P80" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="R80" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="S80" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="T80" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="U80" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="V80" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="W80" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="X80" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="Y80" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="Z80" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="AA80" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="AB80" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="AC80" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="AD80" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="AE80" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="AF80" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="AG80" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="AH80" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="AI80" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="AJ80" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="AK80" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="AL80" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="81">
@@ -16063,12 +16063,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PWROILPANXX01</t>
+          <t>PWROILCRIXX01</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Oil (Power generator) Panama, region XX (can be invested)</t>
+          <t>Oil (Power generator) Costa Rica, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -16095,94 +16095,94 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="J81" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="K81" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="L81" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="M81" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="N81" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="O81" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="P81" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="R81" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="S81" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="T81" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="U81" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="V81" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="W81" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="X81" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="Y81" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="Z81" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="AA81" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="AB81" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="AC81" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="AD81" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="AE81" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="AF81" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="AG81" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="AH81" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="AI81" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="AJ81" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="AK81" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="AL81" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="82">
@@ -16191,22 +16191,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PWROILPANXX01</t>
+          <t>PWROILCRIXX01</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Oil (Power generator) Panama, region XX (can be invested)</t>
+          <t>Oil (Power generator) Costa Rica, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>ELCPANXX01</t>
+          <t>ELCCRIXX01</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Electricity, Panama, region XX, power plant output</t>
+          <t>Electricity, Costa Rica, region XX, power plant output</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -16319,22 +16319,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PWROILPANXX01</t>
+          <t>PWROILCRIXX01</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Oil (Power generator) Panama, region XX (can be invested)</t>
+          <t>Oil (Power generator) Costa Rica, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>ELCPANXX01</t>
+          <t>ELCCRIXX01</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Electricity, Panama, region XX, power plant output</t>
+          <t>Electricity, Costa Rica, region XX, power plant output</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -16447,22 +16447,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>PWROTHCRIXX01</t>
+          <t>PWROILPANXX01</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Other (Power generator) Costa Rica, region XX (can be invested)</t>
+          <t>Oil (Power generator) Panama, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>OTHCRI</t>
+          <t>OILPAN</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Other, Costa Rica</t>
+          <t>Oil, Panama</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -16479,94 +16479,94 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="J84" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="K84" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="L84" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="M84" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="N84" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="O84" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="P84" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="Q84" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="R84" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="S84" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="T84" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="U84" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="V84" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="W84" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="X84" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="Y84" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="Z84" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="AA84" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="AB84" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="AC84" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="AD84" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="AE84" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="AF84" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="AG84" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="AH84" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="AI84" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="AJ84" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="AK84" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="AL84" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="85">
@@ -16575,22 +16575,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>PWROTHCRIXX01</t>
+          <t>PWROILPANXX01</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Other (Power generator) Costa Rica, region XX (can be invested)</t>
+          <t>Oil (Power generator) Panama, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>OTHINT</t>
+          <t>OILINT</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Other, International Markets</t>
+          <t>Oil, International Markets</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -16607,94 +16607,94 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="J85" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="K85" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="L85" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="M85" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="N85" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="O85" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="P85" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="Q85" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="R85" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="S85" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="T85" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="U85" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="V85" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="W85" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="X85" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="Y85" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="Z85" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="AA85" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="AB85" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="AC85" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="AD85" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="AE85" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="AF85" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="AG85" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="AH85" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="AI85" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="AJ85" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="AK85" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
       <c r="AL85" t="n">
-        <v>1</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="86">
@@ -16703,22 +16703,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PWROTHCRIXX01</t>
+          <t>PWROILPANXX01</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Other (Power generator) Costa Rica, region XX (can be invested)</t>
+          <t>Oil (Power generator) Panama, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>ELCCRIXX01</t>
+          <t>ELCPANXX01</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Electricity, Costa Rica, region XX, power plant output</t>
+          <t>Electricity, Panama, region XX, power plant output</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -16831,22 +16831,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>PWROTHCRIXX01</t>
+          <t>PWROILPANXX01</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Other (Power generator) Costa Rica, region XX (can be invested)</t>
+          <t>Oil (Power generator) Panama, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>ELCCRIXX01</t>
+          <t>ELCPANXX01</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Electricity, Costa Rica, region XX, power plant output</t>
+          <t>Electricity, Panama, region XX, power plant output</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -16959,22 +16959,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>PWROTHPANXX01</t>
+          <t>PWROTHCRIXX01</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Other (Power generator) Panama, region XX (can be invested)</t>
+          <t>Other (Power generator) Costa Rica, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>OTHPAN</t>
+          <t>OTHCRI</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Other, Panama</t>
+          <t>Other, Costa Rica</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -17087,12 +17087,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>PWROTHPANXX01</t>
+          <t>PWROTHCRIXX01</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Other (Power generator) Panama, region XX (can be invested)</t>
+          <t>Other (Power generator) Costa Rica, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -17215,22 +17215,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>PWROTHPANXX01</t>
+          <t>PWROTHCRIXX01</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Other (Power generator) Panama, region XX (can be invested)</t>
+          <t>Other (Power generator) Costa Rica, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>ELCPANXX01</t>
+          <t>ELCCRIXX01</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Electricity, Panama, region XX, power plant output</t>
+          <t>Electricity, Costa Rica, region XX, power plant output</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -17343,22 +17343,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>PWROTHPANXX01</t>
+          <t>PWROTHCRIXX01</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Other (Power generator) Panama, region XX (can be invested)</t>
+          <t>Other (Power generator) Costa Rica, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>ELCPANXX01</t>
+          <t>ELCCRIXX01</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Electricity, Panama, region XX, power plant output</t>
+          <t>Electricity, Costa Rica, region XX, power plant output</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -17471,22 +17471,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>PWRPETCRIXX01</t>
+          <t>PWROTHPANXX01</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Petroleum (Power generator) Costa Rica, region XX (can be invested)</t>
+          <t>Other (Power generator) Panama, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>PETCRI</t>
+          <t>OTHPAN</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Petroleum, Costa Rica</t>
+          <t>Other, Panama</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -17503,94 +17503,94 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="K92" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="L92" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="M92" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="N92" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="O92" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="P92" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="Q92" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="R92" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="S92" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="T92" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="U92" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="V92" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="W92" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="X92" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="Y92" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="Z92" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="AA92" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="AB92" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="AC92" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="AD92" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="AE92" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="AF92" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="AG92" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="AH92" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="AI92" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="AJ92" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="AK92" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="AL92" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -17599,22 +17599,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>PWRPETCRIXX01</t>
+          <t>PWROTHPANXX01</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Petroleum (Power generator) Costa Rica, region XX (can be invested)</t>
+          <t>Other (Power generator) Panama, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>PETINT</t>
+          <t>OTHINT</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Petroleum, International Markets</t>
+          <t>Other, International Markets</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -17631,94 +17631,94 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="K93" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="L93" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="M93" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="N93" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="O93" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="P93" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="Q93" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="R93" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="S93" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="T93" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="U93" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="V93" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="W93" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="X93" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="Y93" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="Z93" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="AA93" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="AB93" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="AC93" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="AD93" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="AE93" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="AF93" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="AG93" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="AH93" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="AI93" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="AJ93" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="AK93" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="AL93" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -17727,22 +17727,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>PWRPETCRIXX01</t>
+          <t>PWROTHPANXX01</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Petroleum (Power generator) Costa Rica, region XX (can be invested)</t>
+          <t>Other (Power generator) Panama, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>ELCCRIXX01</t>
+          <t>ELCPANXX01</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Electricity, Costa Rica, region XX, power plant output</t>
+          <t>Electricity, Panama, region XX, power plant output</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -17855,22 +17855,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>PWRPETCRIXX01</t>
+          <t>PWROTHPANXX01</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Petroleum (Power generator) Costa Rica, region XX (can be invested)</t>
+          <t>Other (Power generator) Panama, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>ELCCRIXX01</t>
+          <t>ELCPANXX01</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Electricity, Costa Rica, region XX, power plant output</t>
+          <t>Electricity, Panama, region XX, power plant output</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -17983,22 +17983,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>PWRPETPANXX01</t>
+          <t>PWRPETCRIXX01</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Petroleum (Power generator) Panama, region XX (can be invested)</t>
+          <t>Petroleum (Power generator) Costa Rica, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>PETPAN</t>
+          <t>PETCRI</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Petroleum, Panama</t>
+          <t>Petroleum, Costa Rica</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -18111,12 +18111,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>PWRPETPANXX01</t>
+          <t>PWRPETCRIXX01</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Petroleum (Power generator) Panama, region XX (can be invested)</t>
+          <t>Petroleum (Power generator) Costa Rica, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -18239,22 +18239,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>PWRPETPANXX01</t>
+          <t>PWRPETCRIXX01</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Petroleum (Power generator) Panama, region XX (can be invested)</t>
+          <t>Petroleum (Power generator) Costa Rica, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>ELCPANXX01</t>
+          <t>ELCCRIXX01</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Electricity, Panama, region XX, power plant output</t>
+          <t>Electricity, Costa Rica, region XX, power plant output</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -18367,22 +18367,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>PWRPETPANXX01</t>
+          <t>PWRPETCRIXX01</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Petroleum (Power generator) Panama, region XX (can be invested)</t>
+          <t>Petroleum (Power generator) Costa Rica, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>ELCPANXX01</t>
+          <t>ELCCRIXX01</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Electricity, Panama, region XX, power plant output</t>
+          <t>Electricity, Costa Rica, region XX, power plant output</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -18495,22 +18495,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>PWRSPVCRIXX01</t>
+          <t>PWRPETPANXX01</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Solar Photovoltaic (Power generator) Costa Rica, region XX (can be invested)</t>
+          <t>Petroleum (Power generator) Panama, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>SPVCRIXX</t>
+          <t>PETPAN</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Solar Photovoltaic, Costa Rica, region XX</t>
+          <t>Petroleum, Panama</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -18527,123 +18527,123 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="K100" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="L100" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="M100" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="N100" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="O100" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="P100" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="Q100" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="R100" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="S100" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="T100" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="U100" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="V100" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="W100" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="X100" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="Y100" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="Z100" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="AA100" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="AB100" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="AC100" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="AD100" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="AE100" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="AF100" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="AG100" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="AH100" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="AI100" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="AJ100" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="AK100" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="AL100" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>PWRSPVCRIXX01</t>
+          <t>PWRPETPANXX01</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Solar Photovoltaic (Power generator) Costa Rica, region XX (can be invested)</t>
+          <t>Petroleum (Power generator) Panama, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ELCCRIXX01</t>
+          <t>PETINT</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Electricity, Costa Rica, region XX, power plant output</t>
+          <t>Petroleum, International Markets</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Output</t>
+          <t>Input</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -18655,94 +18655,94 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="J101" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="K101" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="L101" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="M101" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="N101" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="O101" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="P101" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="Q101" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="R101" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="S101" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="T101" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="U101" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="V101" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="W101" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="X101" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="Y101" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="Z101" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="AA101" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="AB101" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="AC101" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="AD101" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="AE101" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="AF101" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="AG101" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="AH101" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="AI101" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="AJ101" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="AK101" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
       <c r="AL101" t="n">
-        <v>1</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="102">
@@ -18751,27 +18751,27 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>PWRSPVPANXX01</t>
+          <t>PWRPETPANXX01</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Solar Photovoltaic (Power generator) Panama, region XX (can be invested)</t>
+          <t>Petroleum (Power generator) Panama, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>SPVPANXX</t>
+          <t>ELCPANXX01</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Solar Photovoltaic, Panama, region XX</t>
+          <t>Electricity, Panama, region XX, power plant output</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Input</t>
+          <t>Output</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -18875,16 +18875,16 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>PWRSPVPANXX01</t>
+          <t>PWRPETPANXX01</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Solar Photovoltaic (Power generator) Panama, region XX (can be invested)</t>
+          <t>Petroleum (Power generator) Panama, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -19007,22 +19007,22 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>PWRURNCRIXX01</t>
+          <t>PWRSDSCRIXX01</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Nuclear (Power generator) Costa Rica, region XX (can be invested)</t>
+          <t>Short duration storage (Power generator) Costa Rica, region XX (can be invested) (Investable technology)</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>URNCRI</t>
+          <t>ELCCRIXX01</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Nuclear, Costa Rica</t>
+          <t>Electricity, Costa Rica, region XX, power plant output</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -19039,94 +19039,94 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="K104" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="L104" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="M104" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="N104" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="O104" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="P104" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="R104" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="S104" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="T104" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="U104" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="V104" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="W104" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="X104" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="Y104" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="Z104" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="AA104" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="AB104" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="AC104" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="AD104" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="AE104" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="AF104" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="AG104" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="AH104" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="AI104" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="AJ104" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="AK104" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="AL104" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -19135,27 +19135,27 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>PWRURNCRIXX01</t>
+          <t>PWRSDSCRIXX01</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Nuclear (Power generator) Costa Rica, region XX (can be invested)</t>
+          <t>Short duration storage (Power generator) Costa Rica, region XX (can be invested) (Investable technology)</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>URNINT</t>
+          <t>ELCCRIXX01</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Nuclear, International Markets</t>
+          <t>Electricity, Costa Rica, region XX, power plant output</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Input</t>
+          <t>Output</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -19167,94 +19167,94 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>2.22</v>
+        <v>0.85</v>
       </c>
       <c r="J105" t="n">
-        <v>2.22</v>
+        <v>0.85</v>
       </c>
       <c r="K105" t="n">
-        <v>2.22</v>
+        <v>0.85</v>
       </c>
       <c r="L105" t="n">
-        <v>2.22</v>
+        <v>0.85</v>
       </c>
       <c r="M105" t="n">
-        <v>2.22</v>
+        <v>0.85</v>
       </c>
       <c r="N105" t="n">
-        <v>2.22</v>
+        <v>0.85</v>
       </c>
       <c r="O105" t="n">
-        <v>2.22</v>
+        <v>0.85</v>
       </c>
       <c r="P105" t="n">
-        <v>2.22</v>
+        <v>0.85</v>
       </c>
       <c r="Q105" t="n">
-        <v>2.22</v>
+        <v>0.85</v>
       </c>
       <c r="R105" t="n">
-        <v>2.22</v>
+        <v>0.85</v>
       </c>
       <c r="S105" t="n">
-        <v>2.22</v>
+        <v>0.85</v>
       </c>
       <c r="T105" t="n">
-        <v>2.22</v>
+        <v>0.85</v>
       </c>
       <c r="U105" t="n">
-        <v>2.22</v>
+        <v>0.85</v>
       </c>
       <c r="V105" t="n">
-        <v>2.22</v>
+        <v>0.85</v>
       </c>
       <c r="W105" t="n">
-        <v>2.22</v>
+        <v>0.85</v>
       </c>
       <c r="X105" t="n">
-        <v>2.22</v>
+        <v>0.85</v>
       </c>
       <c r="Y105" t="n">
-        <v>2.22</v>
+        <v>0.85</v>
       </c>
       <c r="Z105" t="n">
-        <v>2.22</v>
+        <v>0.85</v>
       </c>
       <c r="AA105" t="n">
-        <v>2.22</v>
+        <v>0.85</v>
       </c>
       <c r="AB105" t="n">
-        <v>2.22</v>
+        <v>0.85</v>
       </c>
       <c r="AC105" t="n">
-        <v>2.22</v>
+        <v>0.85</v>
       </c>
       <c r="AD105" t="n">
-        <v>2.22</v>
+        <v>0.85</v>
       </c>
       <c r="AE105" t="n">
-        <v>2.22</v>
+        <v>0.85</v>
       </c>
       <c r="AF105" t="n">
-        <v>2.22</v>
+        <v>0.85</v>
       </c>
       <c r="AG105" t="n">
-        <v>2.22</v>
+        <v>0.85</v>
       </c>
       <c r="AH105" t="n">
-        <v>2.22</v>
+        <v>0.85</v>
       </c>
       <c r="AI105" t="n">
-        <v>2.22</v>
+        <v>0.85</v>
       </c>
       <c r="AJ105" t="n">
-        <v>2.22</v>
+        <v>0.85</v>
       </c>
       <c r="AK105" t="n">
-        <v>2.22</v>
+        <v>0.85</v>
       </c>
       <c r="AL105" t="n">
-        <v>2.22</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="106">
@@ -19263,27 +19263,27 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>PWRURNCRIXX01</t>
+          <t>PWRSDSPANXX01</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Nuclear (Power generator) Costa Rica, region XX (can be invested)</t>
+          <t>Short duration storage (Power generator) Panama, region XX (can be invested) (Investable technology)</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>ELCCRIXX01</t>
+          <t>ELCPANXX01</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Electricity, Costa Rica, region XX, power plant output</t>
+          <t>Electricity, Panama, region XX, power plant output</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Output</t>
+          <t>Input</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -19391,22 +19391,22 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>PWRURNCRIXX01</t>
+          <t>PWRSDSPANXX01</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Nuclear (Power generator) Costa Rica, region XX (can be invested)</t>
+          <t>Short duration storage (Power generator) Panama, region XX (can be invested) (Investable technology)</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>ELCCRIXX01</t>
+          <t>ELCPANXX01</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Electricity, Costa Rica, region XX, power plant output</t>
+          <t>Electricity, Panama, region XX, power plant output</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -19423,94 +19423,94 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="J107" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="K107" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="L107" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="M107" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="N107" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="O107" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="P107" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="Q107" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="R107" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="S107" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="T107" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="U107" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="V107" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="W107" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="X107" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="Y107" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="Z107" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="AA107" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="AB107" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="AC107" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="AD107" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="AE107" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="AF107" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="AG107" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="AH107" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="AI107" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="AJ107" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="AK107" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="AL107" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="108">
@@ -19519,22 +19519,22 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>PWRURNPANXX01</t>
+          <t>PWRSPVCRIXX01</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Nuclear (Power generator) Panama, region XX (can be invested)</t>
+          <t>Solar Photovoltaic (Power generator) Costa Rica, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>URNPAN</t>
+          <t>SPVCRIXX</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Nuclear, Panama</t>
+          <t>Solar Photovoltaic, Costa Rica, region XX</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -19551,123 +19551,123 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="K108" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="L108" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="M108" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="N108" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="O108" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="P108" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="R108" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="S108" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="T108" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="U108" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="V108" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="W108" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="X108" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="Y108" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="Z108" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="AA108" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="AB108" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="AC108" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="AD108" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="AE108" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="AF108" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="AG108" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="AH108" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="AI108" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="AJ108" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="AK108" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="AL108" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>PWRURNPANXX01</t>
+          <t>PWRSPVCRIXX01</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Nuclear (Power generator) Panama, region XX (can be invested)</t>
+          <t>Solar Photovoltaic (Power generator) Costa Rica, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>URNINT</t>
+          <t>ELCCRIXX01</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Nuclear, International Markets</t>
+          <t>Electricity, Costa Rica, region XX, power plant output</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Input</t>
+          <t>Output</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -19679,94 +19679,94 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="J109" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="K109" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="L109" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="M109" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="N109" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="O109" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="P109" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="Q109" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="R109" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="S109" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="T109" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="U109" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="V109" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="W109" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="X109" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="Y109" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="Z109" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="AA109" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="AB109" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="AC109" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="AD109" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="AE109" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="AF109" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="AG109" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="AH109" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="AI109" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="AJ109" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="AK109" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
       <c r="AL109" t="n">
-        <v>2.22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -19775,27 +19775,27 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>PWRURNPANXX01</t>
+          <t>PWRSPVPANXX01</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Nuclear (Power generator) Panama, region XX (can be invested)</t>
+          <t>Solar Photovoltaic (Power generator) Panama, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>ELCPANXX01</t>
+          <t>SPVPANXX</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Electricity, Panama, region XX, power plant output</t>
+          <t>Solar Photovoltaic, Panama, region XX</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Output</t>
+          <t>Input</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -19899,16 +19899,16 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>PWRURNPANXX01</t>
+          <t>PWRSPVPANXX01</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Nuclear (Power generator) Panama, region XX (can be invested)</t>
+          <t>Solar Photovoltaic (Power generator) Panama, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -20031,22 +20031,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>PWRWASCRIXX01</t>
+          <t>PWRURNCRIXX01</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Waste (Power generator) Costa Rica, region XX (can be invested)</t>
+          <t>Nuclear (Power generator) Costa Rica, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>WASCRIXX</t>
+          <t>URNCRI</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Waste, Costa Rica, region XX</t>
+          <t>Nuclear, Costa Rica</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -20063,123 +20063,123 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="J112" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="K112" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="L112" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="M112" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="N112" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="O112" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="P112" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="Q112" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="R112" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="S112" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="T112" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="U112" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="V112" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="W112" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="X112" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="Y112" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="Z112" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AA112" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AB112" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AC112" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AD112" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AE112" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AF112" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AG112" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AH112" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AI112" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AJ112" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AK112" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AL112" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>PWRWASCRIXX01</t>
+          <t>PWRURNCRIXX01</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Waste (Power generator) Costa Rica, region XX (can be invested)</t>
+          <t>Nuclear (Power generator) Costa Rica, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>ELCCRIXX01</t>
+          <t>URNINT</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Electricity, Costa Rica, region XX, power plant output</t>
+          <t>Nuclear, International Markets</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Output</t>
+          <t>Input</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -20191,94 +20191,94 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="J113" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="K113" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="L113" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="M113" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="N113" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="O113" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="P113" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="Q113" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="R113" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="S113" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="T113" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="U113" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="V113" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="W113" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="X113" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="Y113" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="Z113" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AA113" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AB113" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AC113" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AD113" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AE113" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AF113" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AG113" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AH113" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AI113" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AJ113" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AK113" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AL113" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="114">
@@ -20287,27 +20287,27 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>PWRWASPANXX01</t>
+          <t>PWRURNCRIXX01</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Waste (Power generator) Panama, region XX (can be invested)</t>
+          <t>Nuclear (Power generator) Costa Rica, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>WASPANXX</t>
+          <t>ELCCRIXX01</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Waste, Panama, region XX</t>
+          <t>Electricity, Costa Rica, region XX, power plant output</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Input</t>
+          <t>Output</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -20411,26 +20411,26 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>PWRWASPANXX01</t>
+          <t>PWRURNCRIXX01</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Waste (Power generator) Panama, region XX (can be invested)</t>
+          <t>Nuclear (Power generator) Costa Rica, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>ELCPANXX01</t>
+          <t>ELCCRIXX01</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Electricity, Panama, region XX, power plant output</t>
+          <t>Electricity, Costa Rica, region XX, power plant output</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -20543,22 +20543,22 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>PWRWAVCRIXX01</t>
+          <t>PWRURNPANXX01</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Wave (Power generator) Costa Rica, region XX (can be invested)</t>
+          <t>Nuclear (Power generator) Panama, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>WAVCRIXX</t>
+          <t>URNPAN</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Wave, Costa Rica, region XX</t>
+          <t>Nuclear, Panama</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -20575,123 +20575,123 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="J116" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="K116" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="L116" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="M116" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="N116" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="O116" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="P116" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="Q116" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="R116" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="S116" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="T116" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="U116" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="V116" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="W116" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="X116" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="Y116" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="Z116" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AA116" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AB116" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AC116" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AD116" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AE116" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AF116" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AG116" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AH116" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AI116" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AJ116" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AK116" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AL116" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>PWRWAVCRIXX01</t>
+          <t>PWRURNPANXX01</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Wave (Power generator) Costa Rica, region XX (can be invested)</t>
+          <t>Nuclear (Power generator) Panama, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>ELCCRIXX01</t>
+          <t>URNINT</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Electricity, Costa Rica, region XX, power plant output</t>
+          <t>Nuclear, International Markets</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Output</t>
+          <t>Input</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -20703,94 +20703,94 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="J117" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="K117" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="L117" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="M117" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="N117" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="O117" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="P117" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="Q117" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="R117" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="S117" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="T117" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="U117" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="V117" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="W117" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="X117" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="Y117" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="Z117" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AA117" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AB117" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AC117" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AD117" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AE117" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AF117" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AG117" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AH117" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AI117" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AJ117" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AK117" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AL117" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="118">
@@ -20799,27 +20799,27 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>PWRWAVPANXX01</t>
+          <t>PWRURNPANXX01</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Wave (Power generator) Panama, region XX (can be invested)</t>
+          <t>Nuclear (Power generator) Panama, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>WAVPANXX</t>
+          <t>ELCPANXX01</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Wave, Panama, region XX</t>
+          <t>Electricity, Panama, region XX, power plant output</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Input</t>
+          <t>Output</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -20923,16 +20923,16 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>PWRWAVPANXX01</t>
+          <t>PWRURNPANXX01</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Wave (Power generator) Panama, region XX (can be invested)</t>
+          <t>Nuclear (Power generator) Panama, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -21055,22 +21055,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>PWRWOFCRIXX01</t>
+          <t>PWRWASCRIXX01</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Offshore Wind (Power generator) Costa Rica, region XX (can be invested)</t>
+          <t>Waste (Power generator) Costa Rica, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>WOFCRIXX</t>
+          <t>WASCRIXX</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Offshore Wind, Costa Rica, region XX</t>
+          <t>Waste, Costa Rica, region XX</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -21183,12 +21183,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>PWRWOFCRIXX01</t>
+          <t>PWRWASCRIXX01</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Offshore Wind (Power generator) Costa Rica, region XX (can be invested)</t>
+          <t>Waste (Power generator) Costa Rica, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -21311,22 +21311,22 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>PWRWOFPANXX01</t>
+          <t>PWRWASPANXX01</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Offshore Wind (Power generator) Panama, region XX (can be invested)</t>
+          <t>Waste (Power generator) Panama, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>WOFPANXX</t>
+          <t>WASPANXX</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Offshore Wind, Panama, region XX</t>
+          <t>Waste, Panama, region XX</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -21439,12 +21439,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>PWRWOFPANXX01</t>
+          <t>PWRWASPANXX01</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Offshore Wind (Power generator) Panama, region XX (can be invested)</t>
+          <t>Waste (Power generator) Panama, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -21567,22 +21567,22 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>PWRWONCRIXX01</t>
+          <t>PWRWAVCRIXX01</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Onshore Wind (Power generator) Costa Rica, region XX (can be invested)</t>
+          <t>Wave (Power generator) Costa Rica, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>WONCRIXX</t>
+          <t>WAVCRIXX</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Onshore Wind, Costa Rica, region XX</t>
+          <t>Wave, Costa Rica, region XX</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -21695,12 +21695,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>PWRWONCRIXX01</t>
+          <t>PWRWAVCRIXX01</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Onshore Wind (Power generator) Costa Rica, region XX (can be invested)</t>
+          <t>Wave (Power generator) Costa Rica, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -21823,22 +21823,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>PWRWONPANXX01</t>
+          <t>PWRWAVPANXX01</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Onshore Wind (Power generator) Panama, region XX (can be invested)</t>
+          <t>Wave (Power generator) Panama, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>WONPANXX</t>
+          <t>WAVPANXX</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Onshore Wind, Panama, region XX</t>
+          <t>Wave, Panama, region XX</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -21951,12 +21951,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>PWRWONPANXX01</t>
+          <t>PWRWAVPANXX01</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Onshore Wind (Power generator) Panama, region XX (can be invested)</t>
+          <t>Wave (Power generator) Panama, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -22079,22 +22079,22 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TRNCRIXXPANXX</t>
+          <t>PWRWOFCRIXX01</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Transmission interconnection from Costa Rica, region XX to Panama, region XX</t>
+          <t>Offshore Wind (Power generator) Costa Rica, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>ELCCRIXX02</t>
+          <t>WOFCRIXX</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Electricity, Costa Rica, region XX, transmission line output</t>
+          <t>Offshore Wind, Costa Rica, region XX</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -22203,31 +22203,31 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>TRNCRIXXPANXX</t>
+          <t>PWRWOFCRIXX01</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Transmission interconnection from Costa Rica, region XX to Panama, region XX</t>
+          <t>Offshore Wind (Power generator) Costa Rica, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>ELCPANXX02</t>
+          <t>ELCCRIXX01</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Electricity, Panama, region XX, transmission line output</t>
+          <t>Electricity, Costa Rica, region XX, power plant output</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Input</t>
+          <t>Output</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -22335,27 +22335,27 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>TRNCRIXXPANXX</t>
+          <t>PWRWOFPANXX01</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Transmission interconnection from Costa Rica, region XX to Panama, region XX</t>
+          <t>Offshore Wind (Power generator) Panama, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>ELCPANXX01</t>
+          <t>WOFPANXX</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Electricity, Panama, region XX, power plant output</t>
+          <t>Offshore Wind, Panama, region XX</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Output</t>
+          <t>Input</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -22367,118 +22367,118 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0.96912</v>
+        <v>1</v>
       </c>
       <c r="J130" t="n">
-        <v>0.96912</v>
+        <v>1</v>
       </c>
       <c r="K130" t="n">
-        <v>0.96912</v>
+        <v>1</v>
       </c>
       <c r="L130" t="n">
-        <v>0.96912</v>
+        <v>1</v>
       </c>
       <c r="M130" t="n">
-        <v>0.96912</v>
+        <v>1</v>
       </c>
       <c r="N130" t="n">
-        <v>0.96912</v>
+        <v>1</v>
       </c>
       <c r="O130" t="n">
-        <v>0.96912</v>
+        <v>1</v>
       </c>
       <c r="P130" t="n">
-        <v>0.96912</v>
+        <v>1</v>
       </c>
       <c r="Q130" t="n">
-        <v>0.96912</v>
+        <v>1</v>
       </c>
       <c r="R130" t="n">
-        <v>0.96912</v>
+        <v>1</v>
       </c>
       <c r="S130" t="n">
-        <v>0.96912</v>
+        <v>1</v>
       </c>
       <c r="T130" t="n">
-        <v>0.96912</v>
+        <v>1</v>
       </c>
       <c r="U130" t="n">
-        <v>0.96912</v>
+        <v>1</v>
       </c>
       <c r="V130" t="n">
-        <v>0.96912</v>
+        <v>1</v>
       </c>
       <c r="W130" t="n">
-        <v>0.96912</v>
+        <v>1</v>
       </c>
       <c r="X130" t="n">
-        <v>0.96912</v>
+        <v>1</v>
       </c>
       <c r="Y130" t="n">
-        <v>0.96912</v>
+        <v>1</v>
       </c>
       <c r="Z130" t="n">
-        <v>0.96912</v>
+        <v>1</v>
       </c>
       <c r="AA130" t="n">
-        <v>0.96912</v>
+        <v>1</v>
       </c>
       <c r="AB130" t="n">
-        <v>0.96912</v>
+        <v>1</v>
       </c>
       <c r="AC130" t="n">
-        <v>0.96912</v>
+        <v>1</v>
       </c>
       <c r="AD130" t="n">
-        <v>0.96912</v>
+        <v>1</v>
       </c>
       <c r="AE130" t="n">
-        <v>0.96912</v>
+        <v>1</v>
       </c>
       <c r="AF130" t="n">
-        <v>0.96912</v>
+        <v>1</v>
       </c>
       <c r="AG130" t="n">
-        <v>0.96912</v>
+        <v>1</v>
       </c>
       <c r="AH130" t="n">
-        <v>0.96912</v>
+        <v>1</v>
       </c>
       <c r="AI130" t="n">
-        <v>0.96912</v>
+        <v>1</v>
       </c>
       <c r="AJ130" t="n">
-        <v>0.96912</v>
+        <v>1</v>
       </c>
       <c r="AK130" t="n">
-        <v>0.96912</v>
+        <v>1</v>
       </c>
       <c r="AL130" t="n">
-        <v>0.96912</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>TRNCRIXXPANXX</t>
+          <t>PWRWOFPANXX01</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Transmission interconnection from Costa Rica, region XX to Panama, region XX</t>
+          <t>Offshore Wind (Power generator) Panama, region XX (can be invested)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>ELCCRIXX01</t>
+          <t>ELCPANXX01</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Electricity, Costa Rica, region XX, power plant output</t>
+          <t>Electricity, Panama, region XX, power plant output</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -22495,93 +22495,1117 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+      <c r="O131" t="n">
+        <v>1</v>
+      </c>
+      <c r="P131" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>1</v>
+      </c>
+      <c r="R131" t="n">
+        <v>1</v>
+      </c>
+      <c r="S131" t="n">
+        <v>1</v>
+      </c>
+      <c r="T131" t="n">
+        <v>1</v>
+      </c>
+      <c r="U131" t="n">
+        <v>1</v>
+      </c>
+      <c r="V131" t="n">
+        <v>1</v>
+      </c>
+      <c r="W131" t="n">
+        <v>1</v>
+      </c>
+      <c r="X131" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>PWRWONCRIXX01</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Onshore Wind (Power generator) Costa Rica, region XX (can be invested)</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>WONCRIXX</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Onshore Wind, Costa Rica, region XX</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Input</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>User defined</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+      <c r="O132" t="n">
+        <v>1</v>
+      </c>
+      <c r="P132" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>1</v>
+      </c>
+      <c r="R132" t="n">
+        <v>1</v>
+      </c>
+      <c r="S132" t="n">
+        <v>1</v>
+      </c>
+      <c r="T132" t="n">
+        <v>1</v>
+      </c>
+      <c r="U132" t="n">
+        <v>1</v>
+      </c>
+      <c r="V132" t="n">
+        <v>1</v>
+      </c>
+      <c r="W132" t="n">
+        <v>1</v>
+      </c>
+      <c r="X132" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>PWRWONCRIXX01</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Onshore Wind (Power generator) Costa Rica, region XX (can be invested)</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>ELCCRIXX01</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Electricity, Costa Rica, region XX, power plant output</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Output</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>User defined</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="n">
+        <v>1</v>
+      </c>
+      <c r="O133" t="n">
+        <v>1</v>
+      </c>
+      <c r="P133" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>1</v>
+      </c>
+      <c r="R133" t="n">
+        <v>1</v>
+      </c>
+      <c r="S133" t="n">
+        <v>1</v>
+      </c>
+      <c r="T133" t="n">
+        <v>1</v>
+      </c>
+      <c r="U133" t="n">
+        <v>1</v>
+      </c>
+      <c r="V133" t="n">
+        <v>1</v>
+      </c>
+      <c r="W133" t="n">
+        <v>1</v>
+      </c>
+      <c r="X133" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>PWRWONPANXX01</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Onshore Wind (Power generator) Panama, region XX (can be invested)</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>WONPANXX</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Onshore Wind, Panama, region XX</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Input</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>User defined</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="n">
+        <v>1</v>
+      </c>
+      <c r="O134" t="n">
+        <v>1</v>
+      </c>
+      <c r="P134" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>1</v>
+      </c>
+      <c r="R134" t="n">
+        <v>1</v>
+      </c>
+      <c r="S134" t="n">
+        <v>1</v>
+      </c>
+      <c r="T134" t="n">
+        <v>1</v>
+      </c>
+      <c r="U134" t="n">
+        <v>1</v>
+      </c>
+      <c r="V134" t="n">
+        <v>1</v>
+      </c>
+      <c r="W134" t="n">
+        <v>1</v>
+      </c>
+      <c r="X134" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>1</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>PWRWONPANXX01</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Onshore Wind (Power generator) Panama, region XX (can be invested)</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>ELCPANXX01</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Electricity, Panama, region XX, power plant output</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Output</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>User defined</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="n">
+        <v>1</v>
+      </c>
+      <c r="O135" t="n">
+        <v>1</v>
+      </c>
+      <c r="P135" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>1</v>
+      </c>
+      <c r="R135" t="n">
+        <v>1</v>
+      </c>
+      <c r="S135" t="n">
+        <v>1</v>
+      </c>
+      <c r="T135" t="n">
+        <v>1</v>
+      </c>
+      <c r="U135" t="n">
+        <v>1</v>
+      </c>
+      <c r="V135" t="n">
+        <v>1</v>
+      </c>
+      <c r="W135" t="n">
+        <v>1</v>
+      </c>
+      <c r="X135" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>TRNCRIXXPANXX</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Transmission interconnection from Costa Rica, region XX to Panama, region XX</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>ELCCRIXX02</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Electricity, Costa Rica, region XX, transmission line output</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Input</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>User defined</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+      <c r="O136" t="n">
+        <v>1</v>
+      </c>
+      <c r="P136" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>1</v>
+      </c>
+      <c r="R136" t="n">
+        <v>1</v>
+      </c>
+      <c r="S136" t="n">
+        <v>1</v>
+      </c>
+      <c r="T136" t="n">
+        <v>1</v>
+      </c>
+      <c r="U136" t="n">
+        <v>1</v>
+      </c>
+      <c r="V136" t="n">
+        <v>1</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1</v>
+      </c>
+      <c r="X136" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>2</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>TRNCRIXXPANXX</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Transmission interconnection from Costa Rica, region XX to Panama, region XX</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>ELCPANXX02</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Electricity, Panama, region XX, transmission line output</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Input</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>User defined</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="n">
+        <v>1</v>
+      </c>
+      <c r="O137" t="n">
+        <v>1</v>
+      </c>
+      <c r="P137" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>1</v>
+      </c>
+      <c r="R137" t="n">
+        <v>1</v>
+      </c>
+      <c r="S137" t="n">
+        <v>1</v>
+      </c>
+      <c r="T137" t="n">
+        <v>1</v>
+      </c>
+      <c r="U137" t="n">
+        <v>1</v>
+      </c>
+      <c r="V137" t="n">
+        <v>1</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1</v>
+      </c>
+      <c r="X137" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>TRNCRIXXPANXX</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Transmission interconnection from Costa Rica, region XX to Panama, region XX</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>ELCPANXX01</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Electricity, Panama, region XX, power plant output</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Output</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>User defined</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0.96912</v>
       </c>
-      <c r="J131" t="n">
+      <c r="J138" t="n">
         <v>0.96912</v>
       </c>
-      <c r="K131" t="n">
+      <c r="K138" t="n">
         <v>0.96912</v>
       </c>
-      <c r="L131" t="n">
+      <c r="L138" t="n">
         <v>0.96912</v>
       </c>
-      <c r="M131" t="n">
+      <c r="M138" t="n">
         <v>0.96912</v>
       </c>
-      <c r="N131" t="n">
+      <c r="N138" t="n">
         <v>0.96912</v>
       </c>
-      <c r="O131" t="n">
+      <c r="O138" t="n">
         <v>0.96912</v>
       </c>
-      <c r="P131" t="n">
+      <c r="P138" t="n">
         <v>0.96912</v>
       </c>
-      <c r="Q131" t="n">
+      <c r="Q138" t="n">
         <v>0.96912</v>
       </c>
-      <c r="R131" t="n">
+      <c r="R138" t="n">
         <v>0.96912</v>
       </c>
-      <c r="S131" t="n">
+      <c r="S138" t="n">
         <v>0.96912</v>
       </c>
-      <c r="T131" t="n">
+      <c r="T138" t="n">
         <v>0.96912</v>
       </c>
-      <c r="U131" t="n">
+      <c r="U138" t="n">
         <v>0.96912</v>
       </c>
-      <c r="V131" t="n">
+      <c r="V138" t="n">
         <v>0.96912</v>
       </c>
-      <c r="W131" t="n">
+      <c r="W138" t="n">
         <v>0.96912</v>
       </c>
-      <c r="X131" t="n">
+      <c r="X138" t="n">
         <v>0.96912</v>
       </c>
-      <c r="Y131" t="n">
+      <c r="Y138" t="n">
         <v>0.96912</v>
       </c>
-      <c r="Z131" t="n">
+      <c r="Z138" t="n">
         <v>0.96912</v>
       </c>
-      <c r="AA131" t="n">
+      <c r="AA138" t="n">
         <v>0.96912</v>
       </c>
-      <c r="AB131" t="n">
+      <c r="AB138" t="n">
         <v>0.96912</v>
       </c>
-      <c r="AC131" t="n">
+      <c r="AC138" t="n">
         <v>0.96912</v>
       </c>
-      <c r="AD131" t="n">
+      <c r="AD138" t="n">
         <v>0.96912</v>
       </c>
-      <c r="AE131" t="n">
+      <c r="AE138" t="n">
         <v>0.96912</v>
       </c>
-      <c r="AF131" t="n">
+      <c r="AF138" t="n">
         <v>0.96912</v>
       </c>
-      <c r="AG131" t="n">
+      <c r="AG138" t="n">
         <v>0.96912</v>
       </c>
-      <c r="AH131" t="n">
+      <c r="AH138" t="n">
         <v>0.96912</v>
       </c>
-      <c r="AI131" t="n">
+      <c r="AI138" t="n">
         <v>0.96912</v>
       </c>
-      <c r="AJ131" t="n">
+      <c r="AJ138" t="n">
         <v>0.96912</v>
       </c>
-      <c r="AK131" t="n">
+      <c r="AK138" t="n">
         <v>0.96912</v>
       </c>
-      <c r="AL131" t="n">
+      <c r="AL138" t="n">
+        <v>0.96912</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>2</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>TRNCRIXXPANXX</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Transmission interconnection from Costa Rica, region XX to Panama, region XX</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>ELCCRIXX01</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Electricity, Costa Rica, region XX, power plant output</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Output</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>User defined</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.96912</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.96912</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.96912</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0.96912</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0.96912</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0.96912</v>
+      </c>
+      <c r="O139" t="n">
+        <v>0.96912</v>
+      </c>
+      <c r="P139" t="n">
+        <v>0.96912</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>0.96912</v>
+      </c>
+      <c r="R139" t="n">
+        <v>0.96912</v>
+      </c>
+      <c r="S139" t="n">
+        <v>0.96912</v>
+      </c>
+      <c r="T139" t="n">
+        <v>0.96912</v>
+      </c>
+      <c r="U139" t="n">
+        <v>0.96912</v>
+      </c>
+      <c r="V139" t="n">
+        <v>0.96912</v>
+      </c>
+      <c r="W139" t="n">
+        <v>0.96912</v>
+      </c>
+      <c r="X139" t="n">
+        <v>0.96912</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>0.96912</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>0.96912</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>0.96912</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>0.96912</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>0.96912</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>0.96912</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>0.96912</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>0.96912</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>0.96912</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>0.96912</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>0.96912</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>0.96912</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>0.96912</v>
+      </c>
+      <c r="AL139" t="n">
         <v>0.96912</v>
       </c>
     </row>
